--- a/Resultados/Material + Ano/ResNet/Tentativa 2/Com Tentativa 2 - Material.xlsx
+++ b/Resultados/Material + Ano/ResNet/Tentativa 2/Com Tentativa 2 - Material.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material + Ano\ResNet\Tentativa 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859D80F4-DE41-432C-B21F-97F2D1A9AC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2064BE-8798-403A-8667-EDE4645A895E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="10" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -1570,7 +1570,7 @@
   <sheetPr codeName="Folha1"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -1904,7 +1904,7 @@
   <sheetPr codeName="Folha12"/>
   <dimension ref="N1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -2375,7 +2375,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2384,7 +2384,7 @@
     <col min="2" max="2" width="10.6328125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.453125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.453125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.90625" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6328125" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.54296875" customWidth="1"/>
@@ -2393,7 +2393,7 @@
     <col min="11" max="11" width="13.26953125" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.7265625" style="9"/>
     <col min="13" max="13" width="3.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" style="19" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="4.36328125" style="9" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="8.7265625" style="9"/>
   </cols>
@@ -3170,25 +3170,25 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F4" sqref="F4"/>
+      <selection pane="topRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.54296875" style="31" customWidth="1"/>
     <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="105.1796875" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>29</v>
       </c>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="K1"/>
     </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15">
         <v>0</v>
       </c>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="K2"/>
     </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="K3"/>
     </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="39">
         <v>2</v>
       </c>
@@ -3335,7 +3335,7 @@
       </c>
       <c r="K4"/>
     </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="40">
         <v>3</v>
       </c>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="K5"/>
     </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="40">
         <v>4</v>
       </c>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="K6"/>
     </row>
-    <row r="7" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>0</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>1</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>9</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="G13">
         <f>SUM(G7:G12)+B9</f>
